--- a/reports/line_level_asset_report/templates/xlsx/template.xlsx
+++ b/reports/line_level_asset_report/templates/xlsx/template.xlsx
@@ -1,40 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklokova\code\my_connect_reports\reports\line_level_asset_report\templates\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96560FFB-695D-48ED-8315-913C7642C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AS$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>Asset Id</t>
+  </si>
+  <si>
+    <t>Asset Status</t>
+  </si>
+  <si>
+    <t>External Id</t>
+  </si>
+  <si>
+    <t>Product Id</t>
+  </si>
+  <si>
+    <t>Provider Id</t>
+  </si>
+  <si>
+    <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Marketplace Id</t>
+  </si>
+  <si>
+    <t>Marketplace Name</t>
+  </si>
+  <si>
+    <t>Contract Id</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
+  </si>
+  <si>
+    <t>Reseller Id</t>
+  </si>
+  <si>
+    <t>Reseller External Id</t>
+  </si>
+  <si>
+    <t>Reseller Name</t>
+  </si>
+  <si>
+    <t>Created At</t>
+  </si>
+  <si>
+    <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Customer External Id</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Seamless Move</t>
+  </si>
+  <si>
+    <t>Discount Group</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Renewal Date</t>
+  </si>
+  <si>
+    <t>PurchaseType</t>
+  </si>
+  <si>
+    <t>Adobe Customer Id</t>
+  </si>
+  <si>
+    <t>Adobe VIP Number</t>
+  </si>
+  <si>
+    <t>Adobe User Email</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Reseller Cost</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>USD Cost</t>
+  </si>
+  <si>
+    <t>USD Reseller Cost</t>
+  </si>
+  <si>
+    <t>USD MSRP</t>
+  </si>
+  <si>
+    <t>commitment</t>
+  </si>
+  <si>
+    <t>commitment start date</t>
+  </si>
+  <si>
+    <t>commitment end date</t>
+  </si>
+  <si>
+    <t>recommitment</t>
+  </si>
+  <si>
+    <t>recommitment start date</t>
+  </si>
+  <si>
+    <t>recommitment end date</t>
+  </si>
+  <si>
+    <t>external reference id</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>MANUFACTURER PART NUMBER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +195,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,18 +520,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
+    <col min="26" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="23.140625" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.85546875" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AS1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f956267e-7d50-46d0-9b27-8f911a5b38ff}" enabled="1" method="Standard" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/reports/line_level_asset_report/templates/xlsx/template.xlsx
+++ b/reports/line_level_asset_report/templates/xlsx/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklokova\code\my_connect_reports\reports\line_level_asset_report\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96560FFB-695D-48ED-8315-913C7642C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DDD95D-896E-46E0-9F55-324916B7BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AS$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AT$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Asset Id</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>Discount Group Consumables</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,27 +551,27 @@
     <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" customWidth="1"/>
-    <col min="26" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="23.140625" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" customWidth="1"/>
-    <col min="36" max="36" width="10.85546875" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="16.7109375" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" customWidth="1"/>
+    <col min="27" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="23.140625" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="13.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,83 +633,86 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/reports/line_level_asset_report/templates/xlsx/template.xlsx
+++ b/reports/line_level_asset_report/templates/xlsx/template.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eklokova\code\my_connect_reports\reports\line_level_asset_report\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DDD95D-896E-46E0-9F55-324916B7BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB42E2-F9D3-4BB6-827E-39490F48492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="4305" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AT$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AW$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Asset Id</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Discount Group Consumables</t>
+  </si>
+  <si>
+    <t>Autorenewal status</t>
+  </si>
+  <si>
+    <t>Global Sales</t>
+  </si>
+  <si>
+    <t>HVD code</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT1"/>
+  <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,25 +562,26 @@
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
     <col min="20" max="21" width="14.85546875" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" customWidth="1"/>
-    <col min="27" max="28" width="17.140625" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="23.140625" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" customWidth="1"/>
-    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="29" width="17.140625" customWidth="1"/>
+    <col min="30" max="30" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="23.140625" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="11" customWidth="1"/>
     <col min="39" max="39" width="13.7109375" customWidth="1"/>
-    <col min="40" max="40" width="16.7109375" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,80 +649,89 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AW1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
